--- a/data/georgia_census/racha/lentexi/average_wages.xlsx
+++ b/data/georgia_census/racha/lentexi/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45ACD354-1835-4ED2-BFA9-FFBD53DDA34D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1B6743-CDB1-4334-A896-75F4914EB768}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77B10B06-4191-4E93-8E0B-17A373E8872F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8529A38-247A-4659-B760-4B9ECF79000E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C608B4B-522A-45D8-A68B-7B4B64591910}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9424A0-8A56-4597-82CA-BC726BB4E0D8}"/>
 </file>